--- a/タクシー配車表（イースタン）【2022年7月から】 .xlsx
+++ b/タクシー配車表（イースタン）【2022年7月から】 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falle\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041CFF0B-A1AB-4EAF-A349-7008F31DA7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D890028-76DD-4BD1-A3E7-91C7784E086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>日</t>
   </si>
@@ -368,6 +368,10 @@
   </si>
   <si>
     <t>ＦＡＸ：03-3744-8576</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -652,6 +656,56 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -659,6 +713,42 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,93 +760,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1174,7 @@
   <dimension ref="B1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G24" sqref="G24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1190,18 +1194,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="3:16" ht="25.8" x14ac:dyDescent="0.2">
       <c r="C2" s="20" t="s">
@@ -1234,57 +1238,57 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="3:16" ht="25.8" x14ac:dyDescent="0.2">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="3:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="3:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="K6" s="52" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="K6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="15"/>
@@ -1294,40 +1298,40 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="42" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="3:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="K11" s="10"/>
@@ -1336,20 +1340,20 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="3:16" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="3:16" ht="19.2" x14ac:dyDescent="0.2">
       <c r="C13" s="13"/>
@@ -1357,10 +1361,10 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="3:16" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="11" t="str">
         <f>+H12</f>
         <v>　　</v>
@@ -1381,20 +1385,20 @@
       </c>
     </row>
     <row r="15" spans="3:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
       <c r="P15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1406,26 +1410,26 @@
     </row>
     <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29" t="s">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
       <c r="P17" s="21" t="s">
         <v>27</v>
       </c>
@@ -1438,25 +1442,25 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B18,P19:W24,2,0)),"",VLOOKUP(B18,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27" t="str">
+      <c r="F18" s="25"/>
+      <c r="G18" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B18,P19:W24,3,0)),"",VLOOKUP(B18,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="32" t="str">
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B18,P19:W24,6,0)),"",VLOOKUP(B18,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
       <c r="P18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1482,33 +1486,35 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="22" t="str">
+      <c r="E19" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B19,P19:W24,2,0)),"",VLOOKUP(B19,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="27" t="str">
+      <c r="F19" s="38"/>
+      <c r="G19" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B19,P19:W24,3,0)),"",VLOOKUP(B19,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="32" t="str">
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B19,P19:W24,6,0)),"",VLOOKUP(B19,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="34"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="41"/>
+      <c r="Q19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="42"/>
     </row>
     <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
@@ -1518,33 +1524,33 @@
       <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="E20" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B20,P19:W24,2,0)),"",VLOOKUP(B20,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="27" t="str">
+      <c r="F20" s="38"/>
+      <c r="G20" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B20,P19:W24,3,0)),"",VLOOKUP(B20,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="32" t="str">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B20,P19:W24,6,0)),"",VLOOKUP(B20,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="41"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="42"/>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
@@ -1554,33 +1560,33 @@
       <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="22" t="str">
+      <c r="E21" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B21,P19:W24,2,0)),"",VLOOKUP(B21,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="27" t="str">
+      <c r="F21" s="38"/>
+      <c r="G21" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B21,P19:W24,3,0)),"",VLOOKUP(B21,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="32" t="str">
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B21,P19:W24,6,0)),"",VLOOKUP(B21,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="36"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="41"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="42"/>
     </row>
     <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
@@ -1590,33 +1596,33 @@
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="22" t="str">
+      <c r="E22" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B22,P19:W24,2,0)),"",VLOOKUP(B22,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="27" t="str">
+      <c r="F22" s="38"/>
+      <c r="G22" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B22,P19:W24,3,0)),"",VLOOKUP(B22,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="32" t="str">
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B22,P19:W24,6,0)),"",VLOOKUP(B22,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="41"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="42"/>
     </row>
     <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
@@ -1624,33 +1630,33 @@
       <c r="D23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="22" t="str">
+      <c r="E23" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B23,P19:W24,2,0)),"",VLOOKUP(B23,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="27" t="str">
+      <c r="F23" s="38"/>
+      <c r="G23" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B23,P19:W24,3,0)),"",VLOOKUP(B23,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="32" t="str">
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B23,P19:W24,6,0)),"",VLOOKUP(B23,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="41"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="42"/>
     </row>
     <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -1658,33 +1664,33 @@
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="22" t="str">
-        <f>IF(ISERROR(VLOOKUP(B24,P20:W25,2,0)),"",VLOOKUP(B24,P20:W25,2,0))</f>
-        <v/>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="27" t="str">
+      <c r="E24" s="37" t="str">
+        <f>IF(ISERROR(VLOOKUP(B24,P19:W24,2,0)),"",VLOOKUP(B24,P19:W24,2,0))</f>
+        <v/>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B24,P19:W24,3,0)),"",VLOOKUP(B24,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="32" t="str">
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B24,P19:W24,6,0)),"",VLOOKUP(B24,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="41"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -1694,25 +1700,25 @@
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="22" t="str">
+      <c r="E25" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B25,P19:W24,2,0)),"",VLOOKUP(B25,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="27" t="str">
+      <c r="F25" s="25"/>
+      <c r="G25" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B25,P19:W24,3,0)),"",VLOOKUP(B25,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="32" t="str">
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B25,P19:W24,6,0)),"",VLOOKUP(B25,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
     </row>
     <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
@@ -1724,25 +1730,25 @@
       <c r="D26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="22" t="str">
+      <c r="E26" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B26,P19:W24,2,0)),"",VLOOKUP(B26,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="27" t="str">
+      <c r="F26" s="25"/>
+      <c r="G26" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B26,P19:W24,3,0)),"",VLOOKUP(B26,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="32" t="str">
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B26,P19:W24,6,0)),"",VLOOKUP(B26,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
@@ -1754,25 +1760,25 @@
       <c r="D27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="22" t="str">
+      <c r="E27" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(B27,P19:W24,2,0)),"",VLOOKUP(B27,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="27" t="str">
+      <c r="F27" s="25"/>
+      <c r="G27" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B27,P19:W24,3,0)),"",VLOOKUP(B27,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="32" t="str">
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B27,P19:W24,6,0)),"",VLOOKUP(B27,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
     </row>
     <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
@@ -1784,25 +1790,25 @@
       <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="27" t="str">
+      <c r="E28" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B28,P19:W24,2,0)),"",VLOOKUP(B28,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="27" t="str">
+      <c r="F28" s="25"/>
+      <c r="G28" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B28,P19:W24,3,0)),"",VLOOKUP(B28,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="32" t="str">
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B28,P19:W24,6,0)),"",VLOOKUP(B28,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
     </row>
     <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
@@ -1814,71 +1820,71 @@
       <c r="D29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="27" t="str">
+      <c r="E29" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B29,P19:W24,2,0)),"",VLOOKUP(B29,P19:W24,2,0))</f>
         <v/>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="27" t="str">
+      <c r="F29" s="25"/>
+      <c r="G29" s="23" t="str">
         <f>IF(ISERROR(VLOOKUP(B29,P19:W24,3,0)),"",VLOOKUP(B29,P19:W24,3,0))</f>
         <v/>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="32" t="str">
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="34" t="str">
         <f>IF(ISERROR(VLOOKUP(B29,P19:W24,6,0)),"",VLOOKUP(B29,P19:W24,6,0))</f>
         <v/>
       </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
     </row>
     <row r="31" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="50" t="s" ph="1">
+      <c r="C32" s="28" t="s" ph="1">
         <v>29</v>
       </c>
-      <c r="D32" s="50" ph="1"/>
-      <c r="E32" s="50" ph="1"/>
-      <c r="F32" s="50" ph="1"/>
-      <c r="G32" s="50" ph="1"/>
-      <c r="H32" s="50" ph="1"/>
-      <c r="I32" s="50" ph="1"/>
-      <c r="J32" s="50" ph="1"/>
-      <c r="K32" s="50" ph="1"/>
-      <c r="L32" s="50" ph="1"/>
-      <c r="M32" s="50" ph="1"/>
-      <c r="N32" s="50" ph="1"/>
+      <c r="D32" s="28" ph="1"/>
+      <c r="E32" s="28" ph="1"/>
+      <c r="F32" s="28" ph="1"/>
+      <c r="G32" s="28" ph="1"/>
+      <c r="H32" s="28" ph="1"/>
+      <c r="I32" s="28" ph="1"/>
+      <c r="J32" s="28" ph="1"/>
+      <c r="K32" s="28" ph="1"/>
+      <c r="L32" s="28" ph="1"/>
+      <c r="M32" s="28" ph="1"/>
+      <c r="N32" s="28" ph="1"/>
     </row>
     <row r="36" spans="3:14" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="C36" s="30" ph="1"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
+      <c r="C36" s="22" ph="1"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -1887,6 +1893,64 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="74">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K27:N27"/>
     <mergeCell ref="C36:N36"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="I12:K12"/>
@@ -1903,64 +1967,6 @@
     <mergeCell ref="C31:N31"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G20:J20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K20:N20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
